--- a/deliverables/Model Output.xlsx
+++ b/deliverables/Model Output.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathancung/PycharmProjects/zoo_optimization/deliverables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FECA24BA-5515-D24C-A60B-4BA481D09011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6D945E-CA54-2544-98E8-672BE8DBD65F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="2000" windowWidth="27640" windowHeight="16940" xr2:uid="{CB2E4D39-B9D0-244F-AEC5-0D49DA09B6E1}"/>
+    <workbookView xWindow="4420" yWindow="500" windowWidth="27640" windowHeight="16940" xr2:uid="{CB2E4D39-B9D0-244F-AEC5-0D49DA09B6E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,16 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>Food 1</t>
-  </si>
-  <si>
-    <t>Food 2</t>
-  </si>
-  <si>
-    <t>Food 3</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
   <si>
     <t>Animal</t>
   </si>
@@ -51,9 +42,6 @@
     <t>Facility</t>
   </si>
   <si>
-    <t>Investement</t>
-  </si>
-  <si>
     <t>Species</t>
   </si>
   <si>
@@ -61,6 +49,45 @@
   </si>
   <si>
     <t>Binary Value</t>
+  </si>
+  <si>
+    <t>Food 1 (lb)</t>
+  </si>
+  <si>
+    <t>Food 2 (lb)</t>
+  </si>
+  <si>
+    <t>Food 3 (lb)</t>
+  </si>
+  <si>
+    <t>Investement ($)</t>
+  </si>
+  <si>
+    <t>New Adoptee</t>
+  </si>
+  <si>
+    <t>American Alligator</t>
+  </si>
+  <si>
+    <t>Siberian Tiger</t>
+  </si>
+  <si>
+    <t>Clouded Leopard</t>
+  </si>
+  <si>
+    <t>Polar Bear</t>
+  </si>
+  <si>
+    <t>West African Lion</t>
+  </si>
+  <si>
+    <t>Llama</t>
+  </si>
+  <si>
+    <t>LLama</t>
+  </si>
+  <si>
+    <t>Food 1  (lb)</t>
   </si>
 </sst>
 </file>
@@ -421,48 +448,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61A9FFCF-4FF6-EA46-BDFF-CAA296276998}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -490,8 +531,20 @@
       <c r="K2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -519,8 +572,20 @@
       <c r="K3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -548,8 +613,20 @@
       <c r="K4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -577,8 +654,20 @@
       <c r="K5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M5" t="s">
+        <v>11</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -606,8 +695,20 @@
       <c r="K6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -635,8 +736,20 @@
       <c r="K7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M7" t="s">
+        <v>11</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -664,8 +777,20 @@
       <c r="K8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -693,8 +818,20 @@
       <c r="K9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M9" t="s">
+        <v>12</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -722,8 +859,20 @@
       <c r="K10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M10" t="s">
+        <v>12</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -745,8 +894,20 @@
       <c r="K11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M11" t="s">
+        <v>12</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -768,8 +929,20 @@
       <c r="K12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M12" t="s">
+        <v>13</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -791,8 +964,20 @@
       <c r="K13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M13" t="s">
+        <v>13</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -814,8 +999,20 @@
       <c r="K14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M14" t="s">
+        <v>14</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -837,8 +1034,20 @@
       <c r="K15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M15" t="s">
+        <v>14</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -851,8 +1060,20 @@
       <c r="D16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="M16" t="s">
+        <v>14</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -865,8 +1086,20 @@
       <c r="D17">
         <v>45</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="M17" t="s">
+        <v>14</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -879,8 +1112,20 @@
       <c r="D18">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="M18" t="s">
+        <v>15</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -893,8 +1138,20 @@
       <c r="D19">
         <v>15</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="M19" t="s">
+        <v>16</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -908,7 +1165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>

--- a/deliverables/Model Output.xlsx
+++ b/deliverables/Model Output.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathancung/PycharmProjects/zoo_optimization/deliverables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6D945E-CA54-2544-98E8-672BE8DBD65F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31909E15-658F-E847-BABA-04DA9E788B79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4420" yWindow="500" windowWidth="27640" windowHeight="16940" xr2:uid="{CB2E4D39-B9D0-244F-AEC5-0D49DA09B6E1}"/>
+    <workbookView xWindow="4560" yWindow="1200" windowWidth="27640" windowHeight="16940" xr2:uid="{CB2E4D39-B9D0-244F-AEC5-0D49DA09B6E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
   <si>
     <t>Animal</t>
   </si>
@@ -66,28 +66,19 @@
     <t>New Adoptee</t>
   </si>
   <si>
-    <t>American Alligator</t>
-  </si>
-  <si>
-    <t>Siberian Tiger</t>
-  </si>
-  <si>
-    <t>Clouded Leopard</t>
-  </si>
-  <si>
-    <t>Polar Bear</t>
-  </si>
-  <si>
     <t>West African Lion</t>
   </si>
   <si>
-    <t>Llama</t>
-  </si>
-  <si>
-    <t>LLama</t>
-  </si>
-  <si>
     <t>Food 1  (lb)</t>
+  </si>
+  <si>
+    <t>African Elephant</t>
+  </si>
+  <si>
+    <t>Giant Panda</t>
+  </si>
+  <si>
+    <t>Moose</t>
   </si>
 </sst>
 </file>
@@ -451,7 +442,7 @@
   <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -494,7 +485,7 @@
         <v>9</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>6</v>
@@ -526,13 +517,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -541,7 +532,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>20</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -573,7 +564,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -582,7 +573,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>20</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -608,13 +599,13 @@
         <v>2</v>
       </c>
       <c r="J4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -623,7 +614,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -655,7 +646,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -664,7 +655,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -690,13 +681,13 @@
         <v>4</v>
       </c>
       <c r="J6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -705,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>50</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
@@ -731,13 +722,13 @@
         <v>5</v>
       </c>
       <c r="J7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="M7" t="s">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -746,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>50</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -777,8 +768,8 @@
       <c r="K8">
         <v>0</v>
       </c>
-      <c r="M8" t="s">
-        <v>12</v>
+      <c r="M8" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -787,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="P8">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -813,13 +804,13 @@
         <v>7</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="M9" t="s">
-        <v>12</v>
+        <v>1</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -828,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="P9">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -854,22 +845,22 @@
         <v>8</v>
       </c>
       <c r="J10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="M10" t="s">
-        <v>12</v>
+        <v>0</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P10">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
@@ -894,17 +885,17 @@
       <c r="K11">
         <v>1</v>
       </c>
-      <c r="M11" t="s">
-        <v>12</v>
+      <c r="M11" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P11">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -924,13 +915,10 @@
         <v>10</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="M12" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -939,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="P12">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
@@ -964,9 +952,6 @@
       <c r="K13">
         <v>0</v>
       </c>
-      <c r="M13" t="s">
-        <v>13</v>
-      </c>
       <c r="N13">
         <v>0</v>
       </c>
@@ -974,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="P13">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
@@ -994,13 +979,10 @@
         <v>12</v>
       </c>
       <c r="J14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="M14" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1009,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="P14">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
@@ -1034,9 +1016,6 @@
       <c r="K15">
         <v>0</v>
       </c>
-      <c r="M15" t="s">
-        <v>14</v>
-      </c>
       <c r="N15">
         <v>0</v>
       </c>
@@ -1044,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="P15">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
@@ -1060,9 +1039,6 @@
       <c r="D16">
         <v>0</v>
       </c>
-      <c r="M16" t="s">
-        <v>14</v>
-      </c>
       <c r="N16">
         <v>0</v>
       </c>
@@ -1070,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="P16">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
@@ -1086,9 +1062,6 @@
       <c r="D17">
         <v>45</v>
       </c>
-      <c r="M17" t="s">
-        <v>14</v>
-      </c>
       <c r="N17">
         <v>0</v>
       </c>
@@ -1096,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
@@ -1112,9 +1085,6 @@
       <c r="D18">
         <v>10</v>
       </c>
-      <c r="M18" t="s">
-        <v>15</v>
-      </c>
       <c r="N18">
         <v>0</v>
       </c>
@@ -1122,7 +1092,7 @@
         <v>0</v>
       </c>
       <c r="P18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
@@ -1138,9 +1108,6 @@
       <c r="D19">
         <v>15</v>
       </c>
-      <c r="M19" t="s">
-        <v>16</v>
-      </c>
       <c r="N19">
         <v>0</v>
       </c>
@@ -1148,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="P19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
